--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/106.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/106.xlsx
@@ -479,13 +479,13 @@
         <v>-8.281136406365251</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.510902929857115</v>
+        <v>-8.368916905538596</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.159564975278965</v>
+        <v>-2.236521531382631</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.856556359422731</v>
+        <v>-5.936589606694202</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-8.459651794389746</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.210044993908129</v>
+        <v>-9.051850698671553</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.07624555999422</v>
+        <v>-2.148357964046448</v>
       </c>
       <c r="G3" t="n">
-        <v>-5.781026864328813</v>
+        <v>-5.851790761188343</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-8.588981266027879</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.788750964118105</v>
+        <v>-9.618420104147249</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.170470863546123</v>
+        <v>-2.246131281668458</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.630072612563711</v>
+        <v>-5.699880771315795</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.661061232497346</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.4440861828607</v>
+        <v>-10.26490492616884</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.067107132610696</v>
+        <v>-2.148357964046448</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.527258758347637</v>
+        <v>-5.576381078609793</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.710531163117857</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.12665339151409</v>
+        <v>-10.93191847904626</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.199077545255295</v>
+        <v>-2.270365134228493</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.063097345699922</v>
+        <v>-5.114929772650316</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-8.770175153815513</v>
       </c>
       <c r="E7" t="n">
-        <v>-11.62447511476788</v>
+        <v>-11.43972962936829</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.973929213286131</v>
+        <v>-2.06023367361879</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.987764235148631</v>
+        <v>-5.008148950673198</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-8.852499122370876</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.23787568750843</v>
+        <v>-12.05701861605283</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.827229959944591</v>
+        <v>-1.915301881160882</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.576927771975266</v>
+        <v>-4.58621021469005</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-8.978744916083196</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.8486447073778</v>
+        <v>-12.66379448355547</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.745743467057688</v>
+        <v>-1.833632096034195</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.990785373751191</v>
+        <v>-4.007582798297125</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-9.143866462250205</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.46492558674353</v>
+        <v>-13.28925306721325</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.675634185340245</v>
+        <v>-1.736775239611105</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.622485802510595</v>
+        <v>-3.646706562767787</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-9.331683744991254</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.32503751423356</v>
+        <v>-14.14037058265102</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.500131865746907</v>
+        <v>-1.568211840523882</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.126143509477918</v>
+        <v>-3.125292509793205</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-9.527071565174619</v>
       </c>
       <c r="E12" t="n">
-        <v>-14.97517508874799</v>
+        <v>-14.78394891344174</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.365490623322596</v>
+        <v>-1.431855506427305</v>
       </c>
       <c r="G12" t="n">
-        <v>-2.712806416461784</v>
+        <v>-2.702856266302072</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.691880390864393</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.70369628037584</v>
+        <v>-15.53275008217143</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.198000793068394</v>
+        <v>-1.271527165827528</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.107352871546162</v>
+        <v>-2.101474427570227</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.807406103935092</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.35641303855009</v>
+        <v>-16.17572616703143</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.9822003653282234</v>
+        <v>-1.049403155814803</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.403248824718134</v>
+        <v>-1.397344196136515</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.843769591064742</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.98916403489072</v>
+        <v>-16.81918666709659</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.75553332622942</v>
+        <v>-0.8344668200621865</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.22838802796404</v>
+        <v>-1.233795149037673</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.779621792517796</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.83559450591115</v>
+        <v>-17.68769076070817</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5621207363486008</v>
+        <v>-0.6509389188268705</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7095400663464363</v>
+        <v>-0.6991316855872641</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.608324352532616</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.71376071901992</v>
+        <v>-18.53929269135108</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2608799402633257</v>
+        <v>-0.3325079291104091</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4975233141275244</v>
+        <v>-0.4854914878159781</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.31758679523907</v>
       </c>
       <c r="E18" t="n">
-        <v>-19.45935427355338</v>
+        <v>-19.29224412008159</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1451701677481507</v>
+        <v>-0.1878248904064942</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.08772114287865673</v>
+        <v>-0.07995740729351318</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.920129797809922</v>
       </c>
       <c r="E19" t="n">
-        <v>-20.13575500756832</v>
+        <v>-19.96304134848027</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09062220643133577</v>
+        <v>0.04900177569748859</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05160714396299208</v>
+        <v>0.05989457166180468</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.42496745969965</v>
       </c>
       <c r="E20" t="n">
-        <v>-20.60892392457114</v>
+        <v>-20.47737246561747</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1789952506129867</v>
+        <v>0.1522083989988152</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3040398350543124</v>
+        <v>0.3024556664104636</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.851725711903057</v>
       </c>
       <c r="E21" t="n">
-        <v>-21.25927097593104</v>
+        <v>-21.11860727419954</v>
       </c>
       <c r="F21" t="n">
-        <v>0.4206791610712499</v>
+        <v>0.4039602903423657</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4445987983630835</v>
+        <v>0.4324753259316451</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.232008458253259</v>
       </c>
       <c r="E22" t="n">
-        <v>-21.68600149475426</v>
+        <v>-21.53902730305304</v>
       </c>
       <c r="F22" t="n">
-        <v>0.5271457677801663</v>
+        <v>0.5229038616594471</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6391635108939746</v>
+        <v>0.5919526668467103</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.587243991150833</v>
       </c>
       <c r="E23" t="n">
-        <v>-22.05441889672043</v>
+        <v>-21.91501205606173</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6710956375249445</v>
+        <v>0.6667359006786496</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6771704660435054</v>
+        <v>0.6114078288695153</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-5.954191640596043</v>
       </c>
       <c r="E24" t="n">
-        <v>-22.34343148195153</v>
+        <v>-22.21404025296675</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8587476141554042</v>
+        <v>0.8514944783810879</v>
       </c>
       <c r="G24" t="n">
-        <v>0.839305544435441</v>
+        <v>0.7417809805674235</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-5.353991697682753</v>
       </c>
       <c r="E25" t="n">
-        <v>-22.4766456633661</v>
+        <v>-22.37540288549103</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8632120894244327</v>
+        <v>0.8668779342201161</v>
       </c>
       <c r="G25" t="n">
-        <v>0.9465838739205443</v>
+        <v>0.8459564342790378</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-4.804083746405735</v>
       </c>
       <c r="E26" t="n">
-        <v>-22.69511692088598</v>
+        <v>-22.60073450969998</v>
       </c>
       <c r="F26" t="n">
-        <v>1.025766121507304</v>
+        <v>1.033870256966332</v>
       </c>
       <c r="G26" t="n">
-        <v>0.7549780218318833</v>
+        <v>0.6186085954324646</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-4.320506833324072</v>
       </c>
       <c r="E27" t="n">
-        <v>-22.56621010710634</v>
+        <v>-22.47506149472225</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9843944445274493</v>
+        <v>1.000890746108024</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6431042940493341</v>
+        <v>0.510819666136534</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-3.899264867593192</v>
       </c>
       <c r="E28" t="n">
-        <v>-22.67263743690674</v>
+        <v>-22.57939405606796</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9841980599848233</v>
+        <v>0.9972510859180242</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2088195164864387</v>
+        <v>0.06980544491299132</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-3.544286372939382</v>
       </c>
       <c r="E29" t="n">
-        <v>-22.42008691508984</v>
+        <v>-22.31157790913761</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9548974862250404</v>
+        <v>0.9581312850269468</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.02375215119398317</v>
+        <v>-0.1737768494573222</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-3.244296461924571</v>
       </c>
       <c r="E30" t="n">
-        <v>-22.27110960105384</v>
+        <v>-22.15042475345881</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8923424632472733</v>
+        <v>0.8948561853928847</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.4914353933061218</v>
+        <v>-0.6371265393288494</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-2.985993550862617</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.79767883799418</v>
+        <v>-21.69901524377893</v>
       </c>
       <c r="F31" t="n">
-        <v>0.881842436368209</v>
+        <v>0.8942277548564819</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.7887615908417208</v>
+        <v>-0.9212556955999885</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-2.761419343755622</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.32486341316809</v>
+        <v>-21.23129272475827</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8345268538982109</v>
+        <v>0.8302063939604414</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.213174772061955</v>
+        <v>-1.341361509185295</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-2.553680260631177</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.1268161480813</v>
+        <v>-21.01622546597724</v>
       </c>
       <c r="F33" t="n">
-        <v>0.7371070284529273</v>
+        <v>0.7370022900301935</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.624207619777945</v>
+        <v>-1.750247219235241</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-2.359580729644477</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.63076188571114</v>
+        <v>-20.53187572234758</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6956567976560225</v>
+        <v>0.6842534018808791</v>
       </c>
       <c r="G34" t="n">
-        <v>-2.018508504462209</v>
+        <v>-2.121139066438499</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-2.174530872020144</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.24578272065018</v>
+        <v>-20.14184292838972</v>
       </c>
       <c r="F35" t="n">
-        <v>0.653002074997679</v>
+        <v>0.6289776992831116</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.212798278633424</v>
+        <v>-2.324816021747232</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.997465309658037</v>
       </c>
       <c r="E36" t="n">
-        <v>-19.69559178602949</v>
+        <v>-19.58247428947697</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6691972536128942</v>
+        <v>0.6445313550590822</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.539503603745856</v>
+        <v>-2.642814965469916</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.836014992636217</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.31874294103324</v>
+        <v>-19.21969967003558</v>
       </c>
       <c r="F37" t="n">
-        <v>0.5900804675403435</v>
+        <v>0.5619712933391576</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.771590856221134</v>
+        <v>-2.874352341225842</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-1.691890637035626</v>
       </c>
       <c r="E38" t="n">
-        <v>-18.60779161981899</v>
+        <v>-18.52479951210529</v>
       </c>
       <c r="F38" t="n">
-        <v>0.7665516175439692</v>
+        <v>0.7317784611963448</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.843258121976742</v>
+        <v>-2.928842505653106</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-1.573156585667872</v>
       </c>
       <c r="E39" t="n">
-        <v>-18.16338649215944</v>
+        <v>-18.05009879566999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8648355349768068</v>
+        <v>0.8195885363558015</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.759061522401602</v>
+        <v>-2.862556176365446</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.485455366907739</v>
       </c>
       <c r="E40" t="n">
-        <v>-17.56370665279702</v>
+        <v>-17.46644393498584</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7521238998123871</v>
+        <v>0.7031063179729647</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.814245578879477</v>
+        <v>-2.917452202180804</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.43006440562941</v>
       </c>
       <c r="E41" t="n">
-        <v>-17.01359427199338</v>
+        <v>-16.90373675884845</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9155158392771284</v>
+        <v>0.8551865077824548</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.984654992667384</v>
+        <v>-3.061048579748856</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-1.413157327161344</v>
       </c>
       <c r="E42" t="n">
-        <v>-16.36992429508276</v>
+        <v>-16.26310419619711</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8961392310713738</v>
+        <v>0.8323666239293261</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.128997631497414</v>
+        <v>-3.204631865014065</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-1.433108565910344</v>
       </c>
       <c r="E43" t="n">
-        <v>-15.80690290367717</v>
+        <v>-15.70318568056502</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9178069922744305</v>
+        <v>0.8509446016617355</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.147418501595722</v>
+        <v>-3.207878756118813</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-1.489895327257428</v>
       </c>
       <c r="E44" t="n">
-        <v>-15.21023429396834</v>
+        <v>-15.12221474196342</v>
       </c>
       <c r="F44" t="n">
-        <v>1.006795374689643</v>
+        <v>0.9258849431277755</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.314162070587946</v>
+        <v>-3.350362287945318</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-1.583137344992602</v>
       </c>
       <c r="E45" t="n">
-        <v>-14.71187578629804</v>
+        <v>-14.5895544008478</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9710010187203635</v>
+        <v>0.8877339726469857</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.414710956412402</v>
+        <v>-3.439638701023048</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-1.70602974009999</v>
       </c>
       <c r="E46" t="n">
-        <v>-14.24448057484842</v>
+        <v>-14.11087362434861</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7797224742027457</v>
+        <v>0.6949890902110946</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.446446698500746</v>
+        <v>-3.467656229104342</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.859677225006905</v>
       </c>
       <c r="E47" t="n">
-        <v>-13.47435204478957</v>
+        <v>-13.32850379113274</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8334401927623477</v>
+        <v>0.7439281182334666</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.319490637844528</v>
+        <v>-3.341184583653268</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-2.040386092466488</v>
       </c>
       <c r="E48" t="n">
-        <v>-12.90347527167894</v>
+        <v>-12.76028475549899</v>
       </c>
       <c r="F48" t="n">
-        <v>0.7558159292137538</v>
+        <v>0.6673512389122108</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.329964480117909</v>
+        <v>-3.368547496592476</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-2.246337500346764</v>
       </c>
       <c r="E49" t="n">
-        <v>-12.48835762547634</v>
+        <v>-12.35204056828828</v>
       </c>
       <c r="F49" t="n">
-        <v>0.7194978811308057</v>
+        <v>0.6224708247707739</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.466752860208263</v>
+        <v>-3.500190601666031</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.480764150804786</v>
       </c>
       <c r="E50" t="n">
-        <v>-11.9399734286478</v>
+        <v>-11.80092008016583</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6653481165774268</v>
+        <v>0.5756003805973945</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.619631680491098</v>
+        <v>-3.637280104721745</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.738649535418117</v>
       </c>
       <c r="E51" t="n">
-        <v>-11.46372782047717</v>
+        <v>-11.33849994379606</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6721430217522826</v>
+        <v>0.5780355489259555</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.796718168728285</v>
+        <v>-3.811983793841737</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.024570900982923</v>
       </c>
       <c r="E52" t="n">
-        <v>-11.00421417533827</v>
+        <v>-10.87499314629043</v>
       </c>
       <c r="F52" t="n">
-        <v>0.612376659279803</v>
+        <v>0.5239905227953103</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.847018796246196</v>
+        <v>-3.873596171014901</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.336841613841633</v>
       </c>
       <c r="E53" t="n">
-        <v>-10.39807983067488</v>
+        <v>-10.27482889172287</v>
       </c>
       <c r="F53" t="n">
-        <v>0.5883915604737608</v>
+        <v>0.499874500960851</v>
       </c>
       <c r="G53" t="n">
-        <v>-4.004650122460578</v>
+        <v>-4.028281729089894</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.671107194102039</v>
       </c>
       <c r="E54" t="n">
-        <v>-9.96536612945299</v>
+        <v>-9.84779724993429</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5804183480431497</v>
+        <v>0.4792672162879741</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.064076085059173</v>
+        <v>-4.099451487337517</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.028142849600503</v>
       </c>
       <c r="E55" t="n">
-        <v>-9.469220220962939</v>
+        <v>-9.367178812614526</v>
       </c>
       <c r="F55" t="n">
-        <v>0.4922024114955995</v>
+        <v>0.3925176176586972</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.174575121043341</v>
+        <v>-4.218669997014274</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-4.396624051058037</v>
       </c>
       <c r="E56" t="n">
-        <v>-9.153263676483563</v>
+        <v>-9.02444850882382</v>
       </c>
       <c r="F56" t="n">
-        <v>0.4630458530670755</v>
+        <v>0.3495355874293105</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.431223533649697</v>
+        <v>-4.486525420853148</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.774408631619376</v>
       </c>
       <c r="E57" t="n">
-        <v>-8.63631409877801</v>
+        <v>-8.510798191434382</v>
       </c>
       <c r="F57" t="n">
-        <v>0.434295156026645</v>
+        <v>0.3181533375176931</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.408966618818763</v>
+        <v>-4.472555933721027</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.153361353342669</v>
       </c>
       <c r="E58" t="n">
-        <v>-8.541329441661286</v>
+        <v>-8.389498005605789</v>
       </c>
       <c r="F58" t="n">
-        <v>0.397689077281179</v>
+        <v>0.2727361389597454</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.475252948106422</v>
+        <v>-4.543450753608973</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-5.522622223821245</v>
       </c>
       <c r="E59" t="n">
-        <v>-7.97854371170685</v>
+        <v>-7.850409343794877</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3907239721693807</v>
+        <v>0.2832885350501766</v>
       </c>
       <c r="G59" t="n">
-        <v>-4.715274136103786</v>
+        <v>-4.778536143435006</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.879561557378262</v>
       </c>
       <c r="E60" t="n">
-        <v>-7.890589621216135</v>
+        <v>-7.758200254880601</v>
       </c>
       <c r="F60" t="n">
-        <v>0.512587127020167</v>
+        <v>0.3873723426418988</v>
       </c>
       <c r="G60" t="n">
-        <v>-4.776402098071805</v>
+        <v>-4.835042522499896</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.209996297723308</v>
       </c>
       <c r="E61" t="n">
-        <v>-7.555819437553199</v>
+        <v>-7.436456912545182</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4642765295341977</v>
+        <v>0.3413005289418648</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.886992780175865</v>
+        <v>-4.952218632933344</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.510892966382172</v>
       </c>
       <c r="E62" t="n">
-        <v>-7.274020711187887</v>
+        <v>-7.153794094192317</v>
       </c>
       <c r="F62" t="n">
-        <v>0.4364553859955299</v>
+        <v>0.3106121710808589</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.077996386333806</v>
+        <v>-5.143903038839055</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.773978520877645</v>
       </c>
       <c r="E63" t="n">
-        <v>-7.095441700426743</v>
+        <v>-6.976000621601677</v>
       </c>
       <c r="F63" t="n">
-        <v>0.4037508134968981</v>
+        <v>0.2748439997172633</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.030576065441075</v>
+        <v>-5.089124843749274</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.989922306495013</v>
       </c>
       <c r="E64" t="n">
-        <v>-6.883254748270889</v>
+        <v>-6.760592962946758</v>
       </c>
       <c r="F64" t="n">
-        <v>0.2010295962956117</v>
+        <v>0.07197876718471784</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.030877188406435</v>
+        <v>-5.077210848163303</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.158125651595222</v>
       </c>
       <c r="E65" t="n">
-        <v>-6.826735276903158</v>
+        <v>-6.703261768802839</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1123030599372341</v>
+        <v>-0.01403766248542243</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.084529445451828</v>
+        <v>-5.138495917765423</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.267674081375594</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.546573088393061</v>
+        <v>-6.445133925975368</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1559658899143906</v>
+        <v>0.02872179859565491</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.052819887969167</v>
+        <v>-5.104521391891144</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.319469352863546</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.434345868433786</v>
+        <v>-6.324684739831488</v>
       </c>
       <c r="F67" t="n">
-        <v>0.02912765998374842</v>
+        <v>-0.1117586108960658</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.016004332378234</v>
+        <v>-5.049926489041146</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.309252532750403</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.220378363091457</v>
+        <v>-6.102403622184663</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.004637389045063107</v>
+        <v>-0.1461782750669636</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.005543582407695</v>
+        <v>-5.032369710930391</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.233974054821858</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.241312955335377</v>
+        <v>-6.126257797962288</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.086896327799628</v>
+        <v>-0.221629216343831</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.892308255129606</v>
+        <v>-4.928351364852878</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.099396546159696</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.378114427728572</v>
+        <v>-6.269762529410447</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.1190248389732238</v>
+        <v>-0.2597147253104121</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.828771309438709</v>
+        <v>-4.859328744271298</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.902823482679736</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.398080189562204</v>
+        <v>-6.289990137300914</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.1196139926011014</v>
+        <v>-0.2547134656248727</v>
       </c>
       <c r="G71" t="n">
-        <v>-4.776153344317812</v>
+        <v>-4.798279336120329</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.654186582376391</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.513161531540977</v>
+        <v>-6.391939899529435</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.230754551424514</v>
+        <v>-0.3591376730904798</v>
       </c>
       <c r="G72" t="n">
-        <v>-4.653059512999904</v>
+        <v>-4.667788353696846</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.35640044044712</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.602424852315865</v>
+        <v>-6.489726309454287</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.2269970605089386</v>
+        <v>-0.3603683495576021</v>
       </c>
       <c r="G73" t="n">
-        <v>-4.405732820016857</v>
+        <v>-4.425947335604482</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.014396610082884</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.896242312689881</v>
+        <v>-6.788204629639957</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.2377720257476792</v>
+        <v>-0.3646626248896883</v>
       </c>
       <c r="G74" t="n">
-        <v>-4.113538805195214</v>
+        <v>-4.121865509802552</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-5.63767540267078</v>
       </c>
       <c r="E75" t="n">
-        <v>-7.126431181253109</v>
+        <v>-7.022871065775056</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3744163905067742</v>
+        <v>-0.4964497452945029</v>
       </c>
       <c r="G75" t="n">
-        <v>-3.849100472398031</v>
+        <v>-3.864078066848966</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-5.226640381772164</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.397939357584824</v>
+        <v>-7.302391731445907</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.4774528138711583</v>
+        <v>-0.5947205704244988</v>
       </c>
       <c r="G76" t="n">
-        <v>-3.491353297247866</v>
+        <v>-3.507875783434125</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-4.793014878966644</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.898693756675163</v>
+        <v>-7.815047033819375</v>
       </c>
       <c r="F77" t="n">
-        <v>-0.3563751971908757</v>
+        <v>-0.4699771089485327</v>
       </c>
       <c r="G77" t="n">
-        <v>-3.364920928705318</v>
+        <v>-3.383983321642871</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-4.340237181792773</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.300025207985433</v>
+        <v>-8.209570487651948</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.4493305473671307</v>
+        <v>-0.5587298299125938</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.383210875775209</v>
+        <v>-3.393056287512187</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-3.874420471268862</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.766962188835594</v>
+        <v>-8.68440212711567</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.492666069773244</v>
+        <v>-0.5968546157877</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.103794948527091</v>
+        <v>-3.12821209332691</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-3.405207496097273</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.337943700368951</v>
+        <v>-9.260384898334566</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.5566350614579176</v>
+        <v>-0.6648953136561505</v>
       </c>
       <c r="G80" t="n">
-        <v>-2.730454840692431</v>
+        <v>-2.758001045871422</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-2.934197644834594</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.902405245087129</v>
+        <v>-9.839418176115585</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.5849013432932042</v>
+        <v>-0.6665842207227332</v>
       </c>
       <c r="G81" t="n">
-        <v>-2.575834744131646</v>
+        <v>-2.587866570443192</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-2.472549639379876</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.80451728009342</v>
+        <v>-10.73341298336001</v>
       </c>
       <c r="F82" t="n">
-        <v>-0.5705521793786724</v>
+        <v>-0.6698703887360064</v>
       </c>
       <c r="G82" t="n">
-        <v>-2.179753306260907</v>
+        <v>-2.201643636612273</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-2.02328477501168</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.59946881634019</v>
+        <v>-11.55385523323961</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.6443011212861154</v>
+        <v>-0.732163565656939</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.944091855109838</v>
+        <v>-1.970944168238218</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-1.591547921298891</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.54495565066112</v>
+        <v>-12.50326975841306</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.5423382667547527</v>
+        <v>-0.6334868791388496</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.721732183645962</v>
+        <v>-1.736290824405962</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-1.185666073129977</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.7053264515233</v>
+        <v>-13.68183886022524</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.6359089551645689</v>
+        <v>-0.7302389971392053</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.572571577370177</v>
+        <v>-1.579261744122299</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.8077829480866162</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.83034803471282</v>
+        <v>-14.79701503167779</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.6986210857764368</v>
+        <v>-0.7818226703356059</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.299518509303138</v>
+        <v>-1.33124115908864</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.4679866047762843</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.95399492610396</v>
+        <v>-15.92860895089385</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7236273842041336</v>
+        <v>-0.807391937785497</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.222535768593789</v>
+        <v>-1.251993449987673</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1713892699465452</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.28717103217409</v>
+        <v>-17.27872649684117</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9103628996356725</v>
+        <v>-0.9871361634995541</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.061343336006457</v>
+        <v>-1.087436295570018</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.07702464106672681</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.76647033026071</v>
+        <v>-18.78423658521693</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.928404092951571</v>
+        <v>-0.9961960370660287</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.104927612166564</v>
+        <v>-1.126346619615628</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2697580749118657</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.32289638438795</v>
+        <v>-20.34737899070198</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.017772152149193</v>
+        <v>-1.063320273735558</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.027159333286711</v>
+        <v>-1.05135390893822</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.4056069758010921</v>
       </c>
       <c r="E91" t="n">
-        <v>-21.97113875834421</v>
+        <v>-21.98954653613968</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.133665216904152</v>
+        <v>-1.173020679246381</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.028612578902142</v>
+        <v>-1.07736831468473</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.4803867306209683</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.62241854655975</v>
+        <v>-23.64256760063317</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.2763189486676</v>
+        <v>-1.303590215486915</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.221003969161307</v>
+        <v>-1.266957952135765</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.493018347370147</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.68048927637057</v>
+        <v>-25.70129294558607</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.283205499962347</v>
+        <v>-1.317337133470727</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.454073144349714</v>
+        <v>-1.512255338178345</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.4457792005679493</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.67912095127994</v>
+        <v>-27.6856016411866</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.282171208037851</v>
+        <v>-1.32054474766695</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.422952740494932</v>
+        <v>-1.504701079438669</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.33989503229168</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.00245482896697</v>
+        <v>-29.9910121562833</v>
       </c>
       <c r="F95" t="n">
-        <v>-1.598441967785428</v>
+        <v>-1.626420218958196</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.671195894676899</v>
+        <v>-1.751857572484774</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1781007662550416</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.13291290118968</v>
+        <v>-32.11895650636041</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.593427615797047</v>
+        <v>-1.650130379404562</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.938305057253795</v>
+        <v>-2.050794123269905</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02946391329143005</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.51106425087502</v>
+        <v>-34.49887531692937</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.744918651978659</v>
+        <v>-1.772713610911643</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.096918306181306</v>
+        <v>-2.212196032702704</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2831268888614021</v>
       </c>
       <c r="E98" t="n">
-        <v>-36.57311504074971</v>
+        <v>-36.58916620403367</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.957851865396492</v>
+        <v>-1.995191113101094</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.320547931020829</v>
+        <v>-2.457179203477082</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.5599152837227306</v>
       </c>
       <c r="E99" t="n">
-        <v>-38.88353990783479</v>
+        <v>-38.8770461256253</v>
       </c>
       <c r="F99" t="n">
-        <v>-2.027476731908791</v>
+        <v>-2.041393849829546</v>
       </c>
       <c r="G99" t="n">
-        <v>-2.591768076690026</v>
+        <v>-2.713932354506172</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.8680954631764389</v>
       </c>
       <c r="E100" t="n">
-        <v>-41.22600163997358</v>
+        <v>-41.20298537157782</v>
       </c>
       <c r="F100" t="n">
-        <v>-2.435066303977407</v>
+        <v>-2.438535764230465</v>
       </c>
       <c r="G100" t="n">
-        <v>-2.768474888144803</v>
+        <v>-2.89201385775933</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-1.16513779587523</v>
       </c>
       <c r="E101" t="n">
-        <v>-43.57084617122956</v>
+        <v>-43.54858925639863</v>
       </c>
       <c r="F101" t="n">
-        <v>-2.612794315053838</v>
+        <v>-2.61068645429632</v>
       </c>
       <c r="G101" t="n">
-        <v>-2.962123139476773</v>
+        <v>-3.067005577541841</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-1.489467799138779</v>
       </c>
       <c r="E102" t="n">
-        <v>-45.91226051914101</v>
+        <v>-45.87983088500206</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.947237191145731</v>
+        <v>-2.927219060100732</v>
       </c>
       <c r="G102" t="n">
-        <v>-3.326115343082441</v>
+        <v>-3.419908600640567</v>
       </c>
     </row>
   </sheetData>
